--- a/IpoStatus.xlsx
+++ b/IpoStatus.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +418,9 @@
       <c r="E1" t="str">
         <v>Alloted</v>
       </c>
+      <c r="F1" t="str">
+        <v>PAN</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -435,6 +438,9 @@
       <c r="E2" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F2" t="str">
+        <v>AOJPB6681D</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -452,6 +458,9 @@
       <c r="E3" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F3" t="str">
+        <v>AAAHI8611K</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -469,6 +478,9 @@
       <c r="E4" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F4" t="str">
+        <v>HPOPB7999B</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -486,6 +498,9 @@
       <c r="E5" t="str">
         <v>2000</v>
       </c>
+      <c r="F5" t="str">
+        <v>ARAPG0002H</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -503,6 +518,9 @@
       <c r="E6" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F6" t="str">
+        <v>ACTPB8347C</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -520,6 +538,9 @@
       <c r="E7" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F7" t="str">
+        <v>BSVPK2190M</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -537,6 +558,9 @@
       <c r="E8" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F8" t="str">
+        <v>AAFHR6074Q</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -554,6 +578,9 @@
       <c r="E9" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F9" t="str">
+        <v>AFQPJ8607P</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -571,10 +598,13 @@
       <c r="E10" t="str">
         <v>NON-ALLOTTE</v>
       </c>
+      <c r="F10" t="str">
+        <v>AFLPJ5737P</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>